--- a/data/pca/factorExposure/factorExposure_2019-02-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1168983140046524</v>
+        <v>0.07116705562020209</v>
       </c>
       <c r="C2">
-        <v>-0.01830277099546562</v>
+        <v>0.03301283652550319</v>
       </c>
       <c r="D2">
-        <v>-0.04878149935205914</v>
+        <v>0.02287179289885902</v>
       </c>
       <c r="E2">
-        <v>-0.1289818424948755</v>
+        <v>0.04284202655574855</v>
       </c>
       <c r="F2">
-        <v>-0.03215042653934102</v>
+        <v>0.1413401198711986</v>
       </c>
       <c r="G2">
-        <v>-0.1116378616703186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1066464352387455</v>
+      </c>
+      <c r="H2">
+        <v>-0.05239678161354801</v>
+      </c>
+      <c r="I2">
+        <v>0.05930283053835032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2052393053538092</v>
+        <v>0.1600765794314472</v>
       </c>
       <c r="C3">
-        <v>-0.1629267386643579</v>
+        <v>0.1065917484570799</v>
       </c>
       <c r="D3">
-        <v>0.03546301267116387</v>
+        <v>0.0008870061734299501</v>
       </c>
       <c r="E3">
-        <v>-0.331966862788712</v>
+        <v>-0.003928774843149885</v>
       </c>
       <c r="F3">
-        <v>0.06289970733231705</v>
+        <v>0.376490614259505</v>
       </c>
       <c r="G3">
-        <v>-0.07029674329617833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.09717962924083008</v>
+      </c>
+      <c r="H3">
+        <v>-0.2596441408317441</v>
+      </c>
+      <c r="I3">
+        <v>0.2958508164009236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09694427532752482</v>
+        <v>0.07170059010494148</v>
       </c>
       <c r="C4">
-        <v>-0.05041888282519513</v>
+        <v>0.0489127598087928</v>
       </c>
       <c r="D4">
-        <v>-0.02558151578555467</v>
+        <v>-0.01236506660057036</v>
       </c>
       <c r="E4">
-        <v>-0.07010059239447457</v>
+        <v>0.04044253010704305</v>
       </c>
       <c r="F4">
-        <v>0.01180605203913088</v>
+        <v>0.08135300765093603</v>
       </c>
       <c r="G4">
-        <v>-0.04207761721713432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04455851953832533</v>
+      </c>
+      <c r="H4">
+        <v>-0.02070412268414471</v>
+      </c>
+      <c r="I4">
+        <v>0.04510983161100079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01849691262940625</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01234824198268394</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005096295596374621</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005029892649888837</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.004290392397912675</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02101790940652161</v>
+      </c>
+      <c r="H6">
+        <v>-0.0008057677643861366</v>
+      </c>
+      <c r="I6">
+        <v>-0.0122275930214675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03844712354724382</v>
+        <v>0.03338671962448945</v>
       </c>
       <c r="C7">
-        <v>-0.01456416421999837</v>
+        <v>0.01771436161817518</v>
       </c>
       <c r="D7">
-        <v>-0.03067244564872064</v>
+        <v>-0.03557194710372571</v>
       </c>
       <c r="E7">
-        <v>-0.07591481106171767</v>
+        <v>0.02804447982693238</v>
       </c>
       <c r="F7">
-        <v>0.03366223043455618</v>
+        <v>0.05449073036850283</v>
       </c>
       <c r="G7">
-        <v>0.04713416795824169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.006500938164980481</v>
+      </c>
+      <c r="H7">
+        <v>-0.048747915524074</v>
+      </c>
+      <c r="I7">
+        <v>0.01779703718263076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04465081595193745</v>
+        <v>0.02837182167814358</v>
       </c>
       <c r="C8">
-        <v>-0.05729612033544463</v>
+        <v>0.05080465537664235</v>
       </c>
       <c r="D8">
-        <v>-0.003089724887871933</v>
+        <v>-0.01057810582285902</v>
       </c>
       <c r="E8">
-        <v>-0.07005788138540764</v>
+        <v>0.02007971685780073</v>
       </c>
       <c r="F8">
-        <v>0.01430302822856248</v>
+        <v>0.07195640569948919</v>
       </c>
       <c r="G8">
-        <v>-0.01195290139383569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02052958429797376</v>
+      </c>
+      <c r="H8">
+        <v>-0.04070913281473907</v>
+      </c>
+      <c r="I8">
+        <v>0.0522892841340241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08395520646045344</v>
+        <v>0.0602013975547319</v>
       </c>
       <c r="C9">
-        <v>-0.04463352192977851</v>
+        <v>0.04335288778980231</v>
       </c>
       <c r="D9">
-        <v>-0.03615735798562821</v>
+        <v>-0.01640587168957664</v>
       </c>
       <c r="E9">
-        <v>-0.05635885452729984</v>
+        <v>0.03500748131186434</v>
       </c>
       <c r="F9">
-        <v>0.02586009164327184</v>
+        <v>0.08033969946320595</v>
       </c>
       <c r="G9">
-        <v>-0.04498980492389444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04257489867432469</v>
+      </c>
+      <c r="H9">
+        <v>-0.02005720380022486</v>
+      </c>
+      <c r="I9">
+        <v>0.0233432923029362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02089545424334151</v>
+        <v>0.0372115982168951</v>
       </c>
       <c r="C10">
-        <v>0.161581566859584</v>
+        <v>-0.157889936724785</v>
       </c>
       <c r="D10">
-        <v>0.03191814580943935</v>
+        <v>0.002762310350241917</v>
       </c>
       <c r="E10">
-        <v>-0.07454912395284956</v>
+        <v>-0.04015914523503492</v>
       </c>
       <c r="F10">
-        <v>-0.01448444137836712</v>
+        <v>0.06895107826303973</v>
       </c>
       <c r="G10">
-        <v>-0.008242175814860784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02567866038892147</v>
+      </c>
+      <c r="H10">
+        <v>0.003586748285672443</v>
+      </c>
+      <c r="I10">
+        <v>0.09967769279817681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05856241408184677</v>
+        <v>0.0478322860977624</v>
       </c>
       <c r="C11">
-        <v>-0.01724703733245976</v>
+        <v>0.03220174152422877</v>
       </c>
       <c r="D11">
-        <v>0.005585813569318335</v>
+        <v>0.00729610476886885</v>
       </c>
       <c r="E11">
-        <v>-0.04480569863971519</v>
+        <v>0.009756298679356077</v>
       </c>
       <c r="F11">
-        <v>-0.01091738891330689</v>
+        <v>0.03965899239265384</v>
       </c>
       <c r="G11">
-        <v>0.002702143852704725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006264344676481804</v>
+      </c>
+      <c r="H11">
+        <v>-0.0003302894067455361</v>
+      </c>
+      <c r="I11">
+        <v>0.001008795657426603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04454267216592719</v>
+        <v>0.04429645435617618</v>
       </c>
       <c r="C12">
-        <v>-0.02084122482850479</v>
+        <v>0.02944691503674274</v>
       </c>
       <c r="D12">
-        <v>0.003694587119676188</v>
+        <v>-0.00401972236357103</v>
       </c>
       <c r="E12">
-        <v>-0.02756564376556242</v>
+        <v>0.01121997556868291</v>
       </c>
       <c r="F12">
-        <v>0.00906991183856227</v>
+        <v>0.01416133115597371</v>
       </c>
       <c r="G12">
-        <v>0.002414293973770397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.001361489807752521</v>
+      </c>
+      <c r="H12">
+        <v>-0.005402132300385416</v>
+      </c>
+      <c r="I12">
+        <v>0.0008240722808662778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06198660900993009</v>
+        <v>0.04065979188830297</v>
       </c>
       <c r="C13">
-        <v>-0.03128449784269704</v>
+        <v>0.02600205692244198</v>
       </c>
       <c r="D13">
-        <v>0.004828857190914067</v>
+        <v>0.01619771092725584</v>
       </c>
       <c r="E13">
-        <v>-0.1105663150081009</v>
+        <v>0.008890546461026634</v>
       </c>
       <c r="F13">
-        <v>-0.006065692555361929</v>
+        <v>0.1050934231078973</v>
       </c>
       <c r="G13">
-        <v>-0.0176842385169934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02498252528408546</v>
+      </c>
+      <c r="H13">
+        <v>-0.03988252899101614</v>
+      </c>
+      <c r="I13">
+        <v>0.03218416650931331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03427083387364241</v>
+        <v>0.02750873861496435</v>
       </c>
       <c r="C14">
-        <v>-0.0245431370082871</v>
+        <v>0.02131318104401924</v>
       </c>
       <c r="D14">
-        <v>-0.02736966881454416</v>
+        <v>-0.00472603261758128</v>
       </c>
       <c r="E14">
-        <v>-0.03251219245168267</v>
+        <v>0.02739419369316226</v>
       </c>
       <c r="F14">
-        <v>-0.02342172371537236</v>
+        <v>0.04108738765326256</v>
       </c>
       <c r="G14">
-        <v>0.007146753042010447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02493437744436847</v>
+      </c>
+      <c r="H14">
+        <v>-0.0506502872425484</v>
+      </c>
+      <c r="I14">
+        <v>0.01059049303658162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04744317248414311</v>
+        <v>0.04180732908681925</v>
       </c>
       <c r="C16">
-        <v>-0.02747138832587149</v>
+        <v>0.03910272673455405</v>
       </c>
       <c r="D16">
-        <v>0.007756990741624906</v>
+        <v>0.002094232438108076</v>
       </c>
       <c r="E16">
-        <v>-0.03403065938743397</v>
+        <v>0.008106408272322797</v>
       </c>
       <c r="F16">
-        <v>0.003177338622101655</v>
+        <v>0.03552528389374398</v>
       </c>
       <c r="G16">
-        <v>0.009008698040129028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005175625570312412</v>
+      </c>
+      <c r="H16">
+        <v>-0.008463255899398578</v>
+      </c>
+      <c r="I16">
+        <v>0.001539475978293147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05379875205155911</v>
+        <v>0.04735832237218051</v>
       </c>
       <c r="C19">
-        <v>-0.04817689198500523</v>
+        <v>0.04469499183917748</v>
       </c>
       <c r="D19">
-        <v>0.001070922948277275</v>
+        <v>0.003516454275746106</v>
       </c>
       <c r="E19">
-        <v>-0.08262506780425816</v>
+        <v>0.0228473958990578</v>
       </c>
       <c r="F19">
-        <v>-0.007359658716507878</v>
+        <v>0.08511086343218649</v>
       </c>
       <c r="G19">
-        <v>0.02349368083952828</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.009213871359169196</v>
+      </c>
+      <c r="H19">
+        <v>-0.07458357301001449</v>
+      </c>
+      <c r="I19">
+        <v>0.04800784109170846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03626049725647677</v>
+        <v>0.0167063222032911</v>
       </c>
       <c r="C20">
-        <v>-0.0434640208796292</v>
+        <v>0.03053744555179728</v>
       </c>
       <c r="D20">
-        <v>-0.01418053091408229</v>
+        <v>-0.005156136151244554</v>
       </c>
       <c r="E20">
-        <v>-0.06775306707708249</v>
+        <v>0.02158034182594751</v>
       </c>
       <c r="F20">
-        <v>0.004124927328631916</v>
+        <v>0.06882727967144936</v>
       </c>
       <c r="G20">
-        <v>0.01104897161155099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01491542582104057</v>
+      </c>
+      <c r="H20">
+        <v>-0.06771116722264302</v>
+      </c>
+      <c r="I20">
+        <v>0.04788046683288823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03413551460912608</v>
+        <v>0.02719584063241419</v>
       </c>
       <c r="C21">
-        <v>-0.03412676096805607</v>
+        <v>0.03090666344867998</v>
       </c>
       <c r="D21">
-        <v>-0.004010183386907402</v>
+        <v>-0.0116008102283709</v>
       </c>
       <c r="E21">
-        <v>-0.1105071364539432</v>
+        <v>0.007945622038508522</v>
       </c>
       <c r="F21">
-        <v>-0.02224079322181488</v>
+        <v>0.08050062652152383</v>
       </c>
       <c r="G21">
-        <v>-0.04817195729274285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0396347862348754</v>
+      </c>
+      <c r="H21">
+        <v>-0.02365737580517297</v>
+      </c>
+      <c r="I21">
+        <v>-0.008831672590594551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05066416438260511</v>
+        <v>0.04118215073545224</v>
       </c>
       <c r="C24">
-        <v>-0.02494176141395717</v>
+        <v>0.03028426826818406</v>
       </c>
       <c r="D24">
-        <v>0.003556363709348859</v>
+        <v>0.001176357716755004</v>
       </c>
       <c r="E24">
-        <v>-0.04432293206593569</v>
+        <v>0.01071616967091898</v>
       </c>
       <c r="F24">
-        <v>0.009284026075854102</v>
+        <v>0.03744037862215034</v>
       </c>
       <c r="G24">
-        <v>0.002235897368249659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.001946575121772893</v>
+      </c>
+      <c r="H24">
+        <v>-0.002890688524800715</v>
+      </c>
+      <c r="I24">
+        <v>0.003224448289668864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05100045272875899</v>
+        <v>0.045830831107613</v>
       </c>
       <c r="C25">
-        <v>-0.01652546779482941</v>
+        <v>0.02751174166196992</v>
       </c>
       <c r="D25">
-        <v>0.002710152715081884</v>
+        <v>0.002264181159406202</v>
       </c>
       <c r="E25">
-        <v>-0.04279614605473976</v>
+        <v>0.009402064187321573</v>
       </c>
       <c r="F25">
-        <v>-0.002902098204306104</v>
+        <v>0.04254537606389493</v>
       </c>
       <c r="G25">
-        <v>9.205701921036583e-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.001626603079295077</v>
+      </c>
+      <c r="H25">
+        <v>0.001733720052199937</v>
+      </c>
+      <c r="I25">
+        <v>-0.001703214769360727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02226369407956916</v>
+        <v>0.0166852848113876</v>
       </c>
       <c r="C26">
-        <v>-0.03143988817953596</v>
+        <v>0.02579032351722524</v>
       </c>
       <c r="D26">
-        <v>-0.005781948679939771</v>
+        <v>0.005264260160037042</v>
       </c>
       <c r="E26">
-        <v>-0.03604992964492796</v>
+        <v>0.002653769608979694</v>
       </c>
       <c r="F26">
-        <v>-0.03003786638786669</v>
+        <v>0.04649003869942594</v>
       </c>
       <c r="G26">
-        <v>0.0002469731620169403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02246084193794041</v>
+      </c>
+      <c r="H26">
+        <v>-0.03277882519224857</v>
+      </c>
+      <c r="I26">
+        <v>0.003527754681010323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1150236302919078</v>
+        <v>0.07235196652429128</v>
       </c>
       <c r="C27">
-        <v>-0.03656791304751465</v>
+        <v>0.03201952113117768</v>
       </c>
       <c r="D27">
-        <v>-0.01281024181502128</v>
+        <v>-0.003940818434695648</v>
       </c>
       <c r="E27">
-        <v>-0.09053317596613709</v>
+        <v>0.03433353351380327</v>
       </c>
       <c r="F27">
-        <v>0.01519508578476855</v>
+        <v>0.06824234545818068</v>
       </c>
       <c r="G27">
-        <v>-0.01736417766665253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01971409398893116</v>
+      </c>
+      <c r="H27">
+        <v>-0.01179710494926286</v>
+      </c>
+      <c r="I27">
+        <v>0.03326823531182641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.01775178110139436</v>
+        <v>0.05436470992785202</v>
       </c>
       <c r="C28">
-        <v>0.2423878563921694</v>
+        <v>-0.2354824471043616</v>
       </c>
       <c r="D28">
-        <v>0.03824336690317911</v>
+        <v>-0.006532475395162651</v>
       </c>
       <c r="E28">
-        <v>-0.05386398633831208</v>
+        <v>-0.05865458008987462</v>
       </c>
       <c r="F28">
-        <v>-0.0191700317312013</v>
+        <v>0.05807709737573318</v>
       </c>
       <c r="G28">
-        <v>-0.02967628676392172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02677384483269237</v>
+      </c>
+      <c r="H28">
+        <v>0.006879334398638156</v>
+      </c>
+      <c r="I28">
+        <v>0.1516165750745261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02450711619418563</v>
+        <v>0.02290480412525936</v>
       </c>
       <c r="C29">
-        <v>-0.02628475626438934</v>
+        <v>0.01956796803027109</v>
       </c>
       <c r="D29">
-        <v>-0.03128175750670372</v>
+        <v>-0.008221757432756566</v>
       </c>
       <c r="E29">
-        <v>-0.03447372520862359</v>
+        <v>0.02840262670567225</v>
       </c>
       <c r="F29">
-        <v>-0.01750019108864184</v>
+        <v>0.03687694654007849</v>
       </c>
       <c r="G29">
-        <v>-0.005232141711468328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.02884135675872706</v>
+      </c>
+      <c r="H29">
+        <v>-0.04862693192766206</v>
+      </c>
+      <c r="I29">
+        <v>0.001448704329516586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1146321131219114</v>
+        <v>0.08744306012807568</v>
       </c>
       <c r="C30">
-        <v>-0.02922077891013172</v>
+        <v>0.05008912276748292</v>
       </c>
       <c r="D30">
-        <v>-0.03206035593173511</v>
+        <v>0.03921154750500978</v>
       </c>
       <c r="E30">
-        <v>-0.1117115809351651</v>
+        <v>0.03391687443616905</v>
       </c>
       <c r="F30">
-        <v>-0.002409347280226863</v>
+        <v>0.1047389353553897</v>
       </c>
       <c r="G30">
-        <v>0.02020544023728644</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01601359053802414</v>
+      </c>
+      <c r="H30">
+        <v>-0.02104157068140176</v>
+      </c>
+      <c r="I30">
+        <v>-2.028923473368128e-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.07002483088954972</v>
+        <v>0.06171351733616376</v>
       </c>
       <c r="C31">
-        <v>-0.01323114075860175</v>
+        <v>0.02328913953264228</v>
       </c>
       <c r="D31">
-        <v>-0.01235661292921844</v>
+        <v>0.01168245259797268</v>
       </c>
       <c r="E31">
-        <v>0.01995381307659564</v>
+        <v>0.02424969393437411</v>
       </c>
       <c r="F31">
-        <v>-0.04928400368822194</v>
+        <v>0.00165010453980731</v>
       </c>
       <c r="G31">
-        <v>0.02361430511088552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03964463888219756</v>
+      </c>
+      <c r="H31">
+        <v>-0.03550238873868683</v>
+      </c>
+      <c r="I31">
+        <v>0.01586060519912966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06235667227976849</v>
+        <v>0.04142899437256166</v>
       </c>
       <c r="C32">
-        <v>-0.04527949521613086</v>
+        <v>0.05327411338420889</v>
       </c>
       <c r="D32">
-        <v>-0.01306128974926687</v>
+        <v>-0.01319650509053791</v>
       </c>
       <c r="E32">
-        <v>-0.1079902136686445</v>
+        <v>0.03297665160379013</v>
       </c>
       <c r="F32">
-        <v>-0.0005898496719076717</v>
+        <v>0.08784904315945333</v>
       </c>
       <c r="G32">
-        <v>0.01624512855133807</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01228724025210619</v>
+      </c>
+      <c r="H32">
+        <v>-0.0343593145056198</v>
+      </c>
+      <c r="I32">
+        <v>0.03241652087924671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06930935545751232</v>
+        <v>0.05514135760669476</v>
       </c>
       <c r="C33">
-        <v>-0.04881941558293266</v>
+        <v>0.05165833423856014</v>
       </c>
       <c r="D33">
-        <v>-0.01217602908665687</v>
+        <v>0.02099809016551984</v>
       </c>
       <c r="E33">
-        <v>-0.07518842063563208</v>
+        <v>0.01521379842975704</v>
       </c>
       <c r="F33">
-        <v>-0.03132815971321581</v>
+        <v>0.07759945915387249</v>
       </c>
       <c r="G33">
-        <v>-0.02757372301799637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0345359320580065</v>
+      </c>
+      <c r="H33">
+        <v>-0.03648677221921643</v>
+      </c>
+      <c r="I33">
+        <v>0.007332667715452857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04884208695938057</v>
+        <v>0.04271817050493832</v>
       </c>
       <c r="C34">
-        <v>-0.02329739167395672</v>
+        <v>0.03681970777640256</v>
       </c>
       <c r="D34">
-        <v>-0.002180796122701548</v>
+        <v>-0.003069843963742807</v>
       </c>
       <c r="E34">
-        <v>-0.02823881270551195</v>
+        <v>0.01855122442582616</v>
       </c>
       <c r="F34">
-        <v>0.004415293138945601</v>
+        <v>0.0310832582164415</v>
       </c>
       <c r="G34">
-        <v>0.00982396719248591</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001455878880423795</v>
+      </c>
+      <c r="H34">
+        <v>-0.01047502427445238</v>
+      </c>
+      <c r="I34">
+        <v>0.002029164039083966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01590672750571671</v>
+        <v>0.01584619756169663</v>
       </c>
       <c r="C36">
-        <v>-0.00198607492957334</v>
+        <v>0.003617546903781185</v>
       </c>
       <c r="D36">
-        <v>-0.009297998113548613</v>
+        <v>-0.004399029514403516</v>
       </c>
       <c r="E36">
-        <v>-0.02285224112743935</v>
+        <v>0.01043801975060983</v>
       </c>
       <c r="F36">
-        <v>-0.01811907387667202</v>
+        <v>0.02675273678322377</v>
       </c>
       <c r="G36">
-        <v>0.003675619027365503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0248840409572286</v>
+      </c>
+      <c r="H36">
+        <v>-0.02967268506422774</v>
+      </c>
+      <c r="I36">
+        <v>-0.005184761919718346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04849947814354121</v>
+        <v>0.03388722878164711</v>
       </c>
       <c r="C38">
-        <v>-0.02057682346199204</v>
+        <v>0.01531160287662239</v>
       </c>
       <c r="D38">
-        <v>-0.0242450254512664</v>
+        <v>-0.002872361478486071</v>
       </c>
       <c r="E38">
-        <v>-0.0236755911478128</v>
+        <v>0.01351383702928755</v>
       </c>
       <c r="F38">
-        <v>0.02553362588227387</v>
+        <v>0.04748637766505534</v>
       </c>
       <c r="G38">
-        <v>-0.0148528898929345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02550838364505409</v>
+      </c>
+      <c r="H38">
+        <v>-0.01535217467879968</v>
+      </c>
+      <c r="I38">
+        <v>-0.01222665559373944</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07462518956314858</v>
+        <v>0.05482671469507909</v>
       </c>
       <c r="C39">
-        <v>-0.02155736784540585</v>
+        <v>0.04400781826883817</v>
       </c>
       <c r="D39">
-        <v>-0.002196577990370533</v>
+        <v>0.006602434495174544</v>
       </c>
       <c r="E39">
-        <v>-0.04052964201922275</v>
+        <v>0.01783760365802183</v>
       </c>
       <c r="F39">
-        <v>-0.007522224266797398</v>
+        <v>0.05550137962117602</v>
       </c>
       <c r="G39">
-        <v>-0.01169055400949569</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01777047790776635</v>
+      </c>
+      <c r="H39">
+        <v>-0.002336700435070386</v>
+      </c>
+      <c r="I39">
+        <v>-0.01755083032471065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07563974754475207</v>
+        <v>0.05415770119233908</v>
       </c>
       <c r="C40">
-        <v>-0.04833591724936963</v>
+        <v>0.04237376220902558</v>
       </c>
       <c r="D40">
-        <v>-0.009912925041248648</v>
+        <v>0.02213664982357201</v>
       </c>
       <c r="E40">
-        <v>-0.1058830620744493</v>
+        <v>0.02486442624957883</v>
       </c>
       <c r="F40">
-        <v>0.006029775539138007</v>
+        <v>0.0943091981827833</v>
       </c>
       <c r="G40">
-        <v>-0.03787592304824344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02522376392144271</v>
+      </c>
+      <c r="H40">
+        <v>-0.04779313485219096</v>
+      </c>
+      <c r="I40">
+        <v>0.05571609116918848</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003088810908773874</v>
+        <v>0.003696703577559591</v>
       </c>
       <c r="C41">
-        <v>-0.02222522393554872</v>
+        <v>0.01254008827246099</v>
       </c>
       <c r="D41">
-        <v>-0.0272568640646916</v>
+        <v>0.0005365920652095044</v>
       </c>
       <c r="E41">
-        <v>-0.01173800794909847</v>
+        <v>0.01113774722029529</v>
       </c>
       <c r="F41">
-        <v>-0.02665220707079317</v>
+        <v>0.01360180410053104</v>
       </c>
       <c r="G41">
-        <v>-0.0127830669173689</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03527818295706082</v>
+      </c>
+      <c r="H41">
+        <v>-0.03091128761974387</v>
+      </c>
+      <c r="I41">
+        <v>0.02630786200845918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1416684389154123</v>
+        <v>0.2199176590391454</v>
       </c>
       <c r="C42">
-        <v>-0.2228123271346215</v>
+        <v>0.2752532381869446</v>
       </c>
       <c r="D42">
-        <v>0.9240381624013203</v>
+        <v>0.06910858041255083</v>
       </c>
       <c r="E42">
-        <v>0.1050161376457008</v>
+        <v>-0.9026051342892983</v>
       </c>
       <c r="F42">
-        <v>-0.1067374918147772</v>
+        <v>-0.1636891970224787</v>
       </c>
       <c r="G42">
-        <v>0.09655069753981475</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.006278524738633493</v>
+      </c>
+      <c r="H42">
+        <v>-0.007355623799953404</v>
+      </c>
+      <c r="I42">
+        <v>0.05738690561159789</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005824227828043882</v>
+        <v>0.006633181195503641</v>
       </c>
       <c r="C43">
-        <v>-0.02224169963041556</v>
+        <v>0.01507933159228019</v>
       </c>
       <c r="D43">
-        <v>-0.01529782007888819</v>
+        <v>0.003117860574462303</v>
       </c>
       <c r="E43">
-        <v>-0.03421239405331376</v>
+        <v>0.0111517774924274</v>
       </c>
       <c r="F43">
-        <v>-0.01799700041145263</v>
+        <v>0.02847827386930176</v>
       </c>
       <c r="G43">
-        <v>0.005418848428746955</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.021248737980277</v>
+      </c>
+      <c r="H43">
+        <v>-0.02977751776124297</v>
+      </c>
+      <c r="I43">
+        <v>0.01898269871674807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.03963927137321577</v>
+        <v>0.02736452107856996</v>
       </c>
       <c r="C44">
-        <v>-0.05455210809354844</v>
+        <v>0.04233448159268485</v>
       </c>
       <c r="D44">
-        <v>-0.01704741147781489</v>
+        <v>4.320237177626584e-05</v>
       </c>
       <c r="E44">
-        <v>-0.1241433390783744</v>
+        <v>0.01081698079144655</v>
       </c>
       <c r="F44">
-        <v>-0.06295810113763829</v>
+        <v>0.1213690886682983</v>
       </c>
       <c r="G44">
-        <v>-0.05794281668581101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06529708556156869</v>
+      </c>
+      <c r="H44">
+        <v>-0.09557792194471422</v>
+      </c>
+      <c r="I44">
+        <v>0.03957492768861608</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02758286347076324</v>
+        <v>0.02384650426414868</v>
       </c>
       <c r="C46">
-        <v>-0.02917752330231095</v>
+        <v>0.03483457852375501</v>
       </c>
       <c r="D46">
-        <v>-0.03008122983940643</v>
+        <v>0.004041000015285961</v>
       </c>
       <c r="E46">
-        <v>-0.03399745171420789</v>
+        <v>0.03219424238551586</v>
       </c>
       <c r="F46">
-        <v>-0.03032073223881813</v>
+        <v>0.04984944324742065</v>
       </c>
       <c r="G46">
-        <v>-0.009682994540934766</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02432783186252268</v>
+      </c>
+      <c r="H46">
+        <v>-0.05426625146227831</v>
+      </c>
+      <c r="I46">
+        <v>0.007291270866733696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09162149759218899</v>
+        <v>0.08942813311099482</v>
       </c>
       <c r="C47">
-        <v>-0.01277059082828897</v>
+        <v>0.01981219428900562</v>
       </c>
       <c r="D47">
-        <v>-0.01733524421944607</v>
+        <v>0.006273597596601132</v>
       </c>
       <c r="E47">
-        <v>0.01887556358769613</v>
+        <v>0.02773151198182764</v>
       </c>
       <c r="F47">
-        <v>-0.02470579425799398</v>
+        <v>-0.009335866174879802</v>
       </c>
       <c r="G47">
-        <v>0.003556190399877085</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04081499357093454</v>
+      </c>
+      <c r="H47">
+        <v>-0.053122463905221</v>
+      </c>
+      <c r="I47">
+        <v>0.02826768941883524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02009662278850179</v>
+        <v>0.0200429861908826</v>
       </c>
       <c r="C48">
-        <v>-0.0247169802521397</v>
+        <v>0.0197911415464859</v>
       </c>
       <c r="D48">
-        <v>-0.01564343205834989</v>
+        <v>-0.0005380602120918941</v>
       </c>
       <c r="E48">
-        <v>-0.0291778154862814</v>
+        <v>0.01433896505271864</v>
       </c>
       <c r="F48">
-        <v>-0.008136630378475852</v>
+        <v>0.02790983012999283</v>
       </c>
       <c r="G48">
-        <v>-0.002474109202307078</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01712226468903514</v>
+      </c>
+      <c r="H48">
+        <v>-0.01965927359784399</v>
+      </c>
+      <c r="I48">
+        <v>0.01502400403326081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09479768704389242</v>
+        <v>0.0883559935003501</v>
       </c>
       <c r="C50">
-        <v>-0.03200057981601713</v>
+        <v>0.03689116552016198</v>
       </c>
       <c r="D50">
-        <v>-0.02374202377106024</v>
+        <v>-0.008480091458976491</v>
       </c>
       <c r="E50">
-        <v>0.01627623884997387</v>
+        <v>0.02809429450879956</v>
       </c>
       <c r="F50">
-        <v>-0.03838084442814954</v>
+        <v>-0.003812316156916017</v>
       </c>
       <c r="G50">
-        <v>0.02840984643946882</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-7.514521461680604e-05</v>
+      </c>
+      <c r="H50">
+        <v>-0.03975725150870661</v>
+      </c>
+      <c r="I50">
+        <v>-0.0008949853464499187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05390337250702115</v>
+        <v>0.0391414987256259</v>
       </c>
       <c r="C51">
-        <v>0.01675917396323356</v>
+        <v>-0.006651805454164273</v>
       </c>
       <c r="D51">
-        <v>0.0004630355668576654</v>
+        <v>0.01218053080406874</v>
       </c>
       <c r="E51">
-        <v>-0.08237638169672813</v>
+        <v>0.008704470605158244</v>
       </c>
       <c r="F51">
-        <v>-0.0656439422693811</v>
+        <v>0.09718298170502571</v>
       </c>
       <c r="G51">
-        <v>-0.01612969272667357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05448314051826756</v>
+      </c>
+      <c r="H51">
+        <v>-0.05240019142141766</v>
+      </c>
+      <c r="I51">
+        <v>0.02895841649793743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1429759243861458</v>
+        <v>0.125315269268913</v>
       </c>
       <c r="C53">
-        <v>-0.01659998700561068</v>
+        <v>0.0378265253143896</v>
       </c>
       <c r="D53">
-        <v>-0.04924410688829739</v>
+        <v>0.007910357504388362</v>
       </c>
       <c r="E53">
-        <v>0.04582277359473482</v>
+        <v>0.05676766114518256</v>
       </c>
       <c r="F53">
-        <v>-0.02852553349162974</v>
+        <v>-0.04244836087707662</v>
       </c>
       <c r="G53">
-        <v>0.01859844123563272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0221284873310354</v>
+      </c>
+      <c r="H53">
+        <v>0.005775687525415236</v>
+      </c>
+      <c r="I53">
+        <v>0.04808559528482047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0265964265681616</v>
+        <v>0.0249752749956856</v>
       </c>
       <c r="C54">
-        <v>-0.007857930564598017</v>
+        <v>0.003050912359605337</v>
       </c>
       <c r="D54">
-        <v>-0.02876001729142824</v>
+        <v>-0.004653426886588998</v>
       </c>
       <c r="E54">
-        <v>-0.03538977871932573</v>
+        <v>0.02633628976625227</v>
       </c>
       <c r="F54">
-        <v>-0.03514431449642647</v>
+        <v>0.03598566096930567</v>
       </c>
       <c r="G54">
-        <v>-0.03364264294203172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05211545236672108</v>
+      </c>
+      <c r="H54">
+        <v>-0.04249910243908835</v>
+      </c>
+      <c r="I54">
+        <v>0.02725191365262155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1052677530117139</v>
+        <v>0.09848348591983982</v>
       </c>
       <c r="C55">
-        <v>-0.005013023281190177</v>
+        <v>0.03234819223350344</v>
       </c>
       <c r="D55">
-        <v>-0.03667502508874051</v>
+        <v>-0.01027412450933649</v>
       </c>
       <c r="E55">
-        <v>0.01418482065644502</v>
+        <v>0.03790312602435615</v>
       </c>
       <c r="F55">
-        <v>0.03030072048356108</v>
+        <v>-0.02886643586229977</v>
       </c>
       <c r="G55">
-        <v>0.02932850656022705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.009650732417459047</v>
+      </c>
+      <c r="H55">
+        <v>-0.009804836033033936</v>
+      </c>
+      <c r="I55">
+        <v>0.02393565369650143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1779198870224109</v>
+        <v>0.165102073433741</v>
       </c>
       <c r="C56">
-        <v>0.01319819303443977</v>
+        <v>0.02174203109415836</v>
       </c>
       <c r="D56">
-        <v>-0.08645381788306743</v>
+        <v>3.469252252058998e-05</v>
       </c>
       <c r="E56">
-        <v>0.09499522374060088</v>
+        <v>0.08762309099508067</v>
       </c>
       <c r="F56">
-        <v>0.0370200950903847</v>
+        <v>-0.08680966077171771</v>
       </c>
       <c r="G56">
-        <v>0.07092331248468955</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02717152464742567</v>
+      </c>
+      <c r="H56">
+        <v>0.04113153951017639</v>
+      </c>
+      <c r="I56">
+        <v>0.04648980656324869</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08713415296073931</v>
+        <v>0.06451595287436894</v>
       </c>
       <c r="C57">
-        <v>-0.03326648317185044</v>
+        <v>0.03338404757845111</v>
       </c>
       <c r="D57">
-        <v>-0.02876603038024067</v>
+        <v>0.0191763130839114</v>
       </c>
       <c r="E57">
-        <v>-0.04468145403777866</v>
+        <v>0.007768535310085531</v>
       </c>
       <c r="F57">
-        <v>-0.05090705313821293</v>
+        <v>0.06722805392187083</v>
       </c>
       <c r="G57">
-        <v>-0.0008383649738589229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02599510439910803</v>
+      </c>
+      <c r="H57">
+        <v>-0.03424299242911777</v>
+      </c>
+      <c r="I57">
+        <v>0.004050076269650779</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1997647449576277</v>
+        <v>0.2063052681212604</v>
       </c>
       <c r="C58">
-        <v>-0.03823965331940874</v>
+        <v>0.09172561178313889</v>
       </c>
       <c r="D58">
-        <v>-0.002766178401485999</v>
+        <v>0.09538429595554651</v>
       </c>
       <c r="E58">
-        <v>-0.1363803357724617</v>
+        <v>-0.005922160143876493</v>
       </c>
       <c r="F58">
-        <v>-0.007783319031915167</v>
+        <v>0.260047827805572</v>
       </c>
       <c r="G58">
-        <v>0.07791332419731545</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1617429355872467</v>
+      </c>
+      <c r="H58">
+        <v>-0.370773035562753</v>
+      </c>
+      <c r="I58">
+        <v>-0.3877107783030553</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02190001368915533</v>
+        <v>0.05301171260854256</v>
       </c>
       <c r="C59">
-        <v>0.1964590751041692</v>
+        <v>-0.1941916111759716</v>
       </c>
       <c r="D59">
-        <v>0.008357994498074277</v>
+        <v>0.01058607941385507</v>
       </c>
       <c r="E59">
-        <v>-0.06369911199534635</v>
+        <v>-0.02067274741914765</v>
       </c>
       <c r="F59">
-        <v>-0.005461176050634293</v>
+        <v>0.06913462984500374</v>
       </c>
       <c r="G59">
-        <v>-0.01240914156726557</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004538049745300096</v>
+      </c>
+      <c r="H59">
+        <v>0.02739843596884749</v>
+      </c>
+      <c r="I59">
+        <v>0.05399503829018281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1874548357328475</v>
+        <v>0.1872868459542729</v>
       </c>
       <c r="C60">
-        <v>0.0835310784571956</v>
+        <v>-0.04366080883957749</v>
       </c>
       <c r="D60">
-        <v>-0.004333741951438204</v>
+        <v>0.04679793755207492</v>
       </c>
       <c r="E60">
-        <v>-0.1906020773639345</v>
+        <v>0.005937397004092917</v>
       </c>
       <c r="F60">
-        <v>-0.02667339089511528</v>
+        <v>0.2039595193190715</v>
       </c>
       <c r="G60">
-        <v>-0.03472970701377182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07047894707949084</v>
+      </c>
+      <c r="H60">
+        <v>0.2742759861843782</v>
+      </c>
+      <c r="I60">
+        <v>-0.08565406209525224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.0433894444874578</v>
+        <v>0.03666961342838575</v>
       </c>
       <c r="C61">
-        <v>-0.01369905576647136</v>
+        <v>0.02909334528716641</v>
       </c>
       <c r="D61">
-        <v>0.0002354956323076499</v>
+        <v>0.0003858735435003535</v>
       </c>
       <c r="E61">
-        <v>-0.03739742607686228</v>
+        <v>0.008323108331101784</v>
       </c>
       <c r="F61">
-        <v>0.000594333837143974</v>
+        <v>0.03765951175916132</v>
       </c>
       <c r="G61">
-        <v>-0.009753590975519189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.009745667642952359</v>
+      </c>
+      <c r="H61">
+        <v>0.004887095179800334</v>
+      </c>
+      <c r="I61">
+        <v>-0.03095241167923529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04428959280636409</v>
+        <v>0.0305017492412124</v>
       </c>
       <c r="C63">
-        <v>-0.01671050092824274</v>
+        <v>0.0217624654522922</v>
       </c>
       <c r="D63">
-        <v>-0.01867753100655286</v>
+        <v>0.002360318338116848</v>
       </c>
       <c r="E63">
-        <v>-0.0415519520637548</v>
+        <v>0.01566116014475817</v>
       </c>
       <c r="F63">
-        <v>-0.02058330770716188</v>
+        <v>0.02940637543366071</v>
       </c>
       <c r="G63">
-        <v>0.003804800157670771</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01045709421091649</v>
+      </c>
+      <c r="H63">
+        <v>-0.05039648477457297</v>
+      </c>
+      <c r="I63">
+        <v>0.04071541812963875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07315318139702513</v>
+        <v>0.05807616730977738</v>
       </c>
       <c r="C64">
-        <v>-0.04820325761022332</v>
+        <v>0.04475630403657935</v>
       </c>
       <c r="D64">
-        <v>-0.04469145984072442</v>
+        <v>-0.01286090717031708</v>
       </c>
       <c r="E64">
-        <v>-0.04813822665163113</v>
+        <v>0.040852869037601</v>
       </c>
       <c r="F64">
-        <v>0.006747837043272447</v>
+        <v>0.04992750745905695</v>
       </c>
       <c r="G64">
-        <v>-0.07620436345288929</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05844986637299842</v>
+      </c>
+      <c r="H64">
+        <v>0.00924136494898959</v>
+      </c>
+      <c r="I64">
+        <v>0.04775893353143875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02032175239870599</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01240816340459262</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005914709533253721</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006026070142334659</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0006199403726084127</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02138664842203629</v>
+      </c>
+      <c r="H65">
+        <v>0.002742340391841272</v>
+      </c>
+      <c r="I65">
+        <v>-0.01329582117433355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08631308843648625</v>
+        <v>0.06598969000018695</v>
       </c>
       <c r="C66">
-        <v>-0.03969531697191607</v>
+        <v>0.05533603458357948</v>
       </c>
       <c r="D66">
-        <v>-0.03663543523412913</v>
+        <v>0.01527093308355205</v>
       </c>
       <c r="E66">
-        <v>-0.07758833844358586</v>
+        <v>0.04813903057570332</v>
       </c>
       <c r="F66">
-        <v>-0.01772778809084998</v>
+        <v>0.06828361222315817</v>
       </c>
       <c r="G66">
-        <v>-0.02612584432752018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.0124575399656653</v>
+      </c>
+      <c r="H66">
+        <v>-0.001519909584709576</v>
+      </c>
+      <c r="I66">
+        <v>-0.01235717478324693</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05773258066565355</v>
+        <v>0.0467813393452319</v>
       </c>
       <c r="C67">
-        <v>0.007695135450388585</v>
+        <v>-0.00348494992233946</v>
       </c>
       <c r="D67">
-        <v>-0.01409871743109274</v>
+        <v>0.001675392268566863</v>
       </c>
       <c r="E67">
-        <v>-0.01824263640737738</v>
+        <v>0.009825745838500499</v>
       </c>
       <c r="F67">
-        <v>0.01900105639352381</v>
+        <v>0.03618190059972721</v>
       </c>
       <c r="G67">
-        <v>-0.01459799843662631</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03293357177946044</v>
+      </c>
+      <c r="H67">
+        <v>0.004361738525729891</v>
+      </c>
+      <c r="I67">
+        <v>-0.03364805932413697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03668812431069009</v>
+        <v>0.06303927873853676</v>
       </c>
       <c r="C68">
-        <v>0.2451519079334162</v>
+        <v>-0.2339177335727473</v>
       </c>
       <c r="D68">
-        <v>0.0182093479275694</v>
+        <v>0.00946223893097903</v>
       </c>
       <c r="E68">
-        <v>-0.05681449899674659</v>
+        <v>-0.03589380752297101</v>
       </c>
       <c r="F68">
-        <v>-0.03160315038626244</v>
+        <v>0.0571211945741486</v>
       </c>
       <c r="G68">
-        <v>0.001746716011233408</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.00506251869037455</v>
+      </c>
+      <c r="H68">
+        <v>0.02359835996902015</v>
+      </c>
+      <c r="I68">
+        <v>0.1315476943962244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07116338285364436</v>
+        <v>0.07094180959951886</v>
       </c>
       <c r="C69">
-        <v>-0.01782624016990664</v>
+        <v>0.02165157435900675</v>
       </c>
       <c r="D69">
-        <v>-0.02351944721835108</v>
+        <v>0.006648067635000588</v>
       </c>
       <c r="E69">
-        <v>0.01413174575773641</v>
+        <v>0.0323711897963074</v>
       </c>
       <c r="F69">
-        <v>-0.02274908178016585</v>
+        <v>-0.0007509698324572435</v>
       </c>
       <c r="G69">
-        <v>0.0153432130663894</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02219089784962793</v>
+      </c>
+      <c r="H69">
+        <v>-0.03131751095405563</v>
+      </c>
+      <c r="I69">
+        <v>0.004305149174076563</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.02557570267533069</v>
+        <v>0.06108255999155282</v>
       </c>
       <c r="C71">
-        <v>0.2816581619342315</v>
+        <v>-0.2495492200034177</v>
       </c>
       <c r="D71">
-        <v>0.03635432588443008</v>
+        <v>0.01315069827852171</v>
       </c>
       <c r="E71">
-        <v>-0.08787350583823544</v>
+        <v>-0.06265213667281616</v>
       </c>
       <c r="F71">
-        <v>-0.03437295751876276</v>
+        <v>0.07646965845684679</v>
       </c>
       <c r="G71">
-        <v>-0.005383998865054292</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01590699172034234</v>
+      </c>
+      <c r="H71">
+        <v>0.03003358778967563</v>
+      </c>
+      <c r="I71">
+        <v>0.1126758826987702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1241083567824803</v>
+        <v>0.1223180021375988</v>
       </c>
       <c r="C72">
-        <v>0.002302960627196619</v>
+        <v>0.03405881067444292</v>
       </c>
       <c r="D72">
-        <v>-0.03963282889739</v>
+        <v>0.007270355190011454</v>
       </c>
       <c r="E72">
-        <v>-0.08715347393771833</v>
+        <v>0.0640693566711843</v>
       </c>
       <c r="F72">
-        <v>0.0232486537418594</v>
+        <v>0.08867755913462899</v>
       </c>
       <c r="G72">
-        <v>0.0205979340532581</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04323381717934988</v>
+      </c>
+      <c r="H72">
+        <v>0.01473825061850301</v>
+      </c>
+      <c r="I72">
+        <v>-0.1098031258982793</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2876958543225104</v>
+        <v>0.2692892187349991</v>
       </c>
       <c r="C73">
-        <v>0.1651473859285783</v>
+        <v>-0.06757913920155798</v>
       </c>
       <c r="D73">
-        <v>0.06082425286075653</v>
+        <v>0.08590323718433747</v>
       </c>
       <c r="E73">
-        <v>-0.3346071454678204</v>
+        <v>-0.04305228981184335</v>
       </c>
       <c r="F73">
-        <v>0.02456031699701951</v>
+        <v>0.3038840710310349</v>
       </c>
       <c r="G73">
-        <v>-0.05466227108890383</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1698855184344648</v>
+      </c>
+      <c r="H73">
+        <v>0.4737098992767585</v>
+      </c>
+      <c r="I73">
+        <v>-0.2723717866680269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1594390046011057</v>
+        <v>0.1483579436822074</v>
       </c>
       <c r="C74">
-        <v>-0.01296375483051453</v>
+        <v>0.03315976393435139</v>
       </c>
       <c r="D74">
-        <v>-0.04193898222728462</v>
+        <v>0.01301035985499677</v>
       </c>
       <c r="E74">
-        <v>0.03555263667069868</v>
+        <v>0.05263040439036071</v>
       </c>
       <c r="F74">
-        <v>-0.004406458363796426</v>
+        <v>-0.05975003434636951</v>
       </c>
       <c r="G74">
-        <v>0.08388686605854216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.02552511260872949</v>
+      </c>
+      <c r="H74">
+        <v>0.02426773958635601</v>
+      </c>
+      <c r="I74">
+        <v>0.0424098200974565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2336739306254437</v>
+        <v>0.2410669862780872</v>
       </c>
       <c r="C75">
-        <v>-0.009645052542641678</v>
+        <v>0.03130790524220214</v>
       </c>
       <c r="D75">
-        <v>-0.07597335858497638</v>
+        <v>0.02807174085314383</v>
       </c>
       <c r="E75">
-        <v>0.1283253261829783</v>
+        <v>0.1129325968951303</v>
       </c>
       <c r="F75">
-        <v>-0.02594740091984424</v>
+        <v>-0.1446444284595938</v>
       </c>
       <c r="G75">
-        <v>0.049513071587891</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.001439836356084218</v>
+      </c>
+      <c r="H75">
+        <v>0.0171095582907574</v>
+      </c>
+      <c r="I75">
+        <v>0.08607344922325938</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2488364449280322</v>
+        <v>0.2634440842951506</v>
       </c>
       <c r="C76">
-        <v>0.01266119069887043</v>
+        <v>0.01896272165787146</v>
       </c>
       <c r="D76">
-        <v>-0.1097567352351782</v>
+        <v>-0.01178314927839949</v>
       </c>
       <c r="E76">
-        <v>0.1251422542681062</v>
+        <v>0.1391184791296862</v>
       </c>
       <c r="F76">
-        <v>0.01390793917312255</v>
+        <v>-0.1818433190506767</v>
       </c>
       <c r="G76">
-        <v>0.09041638368903014</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.06239863849063686</v>
+      </c>
+      <c r="H76">
+        <v>0.04042490045901415</v>
+      </c>
+      <c r="I76">
+        <v>0.05943033632388044</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1331793995215206</v>
+        <v>0.1225808818732647</v>
       </c>
       <c r="C77">
-        <v>-0.06756184579616965</v>
+        <v>0.07679379502514244</v>
       </c>
       <c r="D77">
-        <v>0.0325786672341609</v>
+        <v>0.01010375170273447</v>
       </c>
       <c r="E77">
-        <v>-0.1471882148742339</v>
+        <v>-0.02832169690602472</v>
       </c>
       <c r="F77">
-        <v>0.01736632921718529</v>
+        <v>0.1595663895669006</v>
       </c>
       <c r="G77">
-        <v>-0.05882276705950904</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0002804004418691464</v>
+      </c>
+      <c r="H77">
+        <v>-0.201822511975961</v>
+      </c>
+      <c r="I77">
+        <v>0.278267746425778</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08610238989096111</v>
+        <v>0.07298839156357634</v>
       </c>
       <c r="C78">
-        <v>-0.05505869059855607</v>
+        <v>0.07725309032452271</v>
       </c>
       <c r="D78">
-        <v>0.01040112024933882</v>
+        <v>-0.002604581946248965</v>
       </c>
       <c r="E78">
-        <v>-0.05224161489448941</v>
+        <v>0.01455211691524975</v>
       </c>
       <c r="F78">
-        <v>-0.01026769508101113</v>
+        <v>0.07643803012200526</v>
       </c>
       <c r="G78">
-        <v>-0.001727635179596564</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.009016199879792576</v>
+      </c>
+      <c r="H78">
+        <v>-0.02399995606573004</v>
+      </c>
+      <c r="I78">
+        <v>0.0355352399078333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.05811246481197386</v>
+        <v>0.1383519828436195</v>
       </c>
       <c r="C80">
-        <v>-0.01977237333033117</v>
+        <v>-0.0009691362636252188</v>
       </c>
       <c r="D80">
-        <v>0.1035186876590213</v>
+        <v>-0.9746726520554243</v>
       </c>
       <c r="E80">
-        <v>0.07286469377290984</v>
+        <v>-0.06107296703943139</v>
       </c>
       <c r="F80">
-        <v>0.8898791581239049</v>
+        <v>0.04536412216873107</v>
       </c>
       <c r="G80">
-        <v>-0.3619585817193118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04692496574563922</v>
+      </c>
+      <c r="H80">
+        <v>0.05137958890628717</v>
+      </c>
+      <c r="I80">
+        <v>-0.06084837074579632</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1661883421217202</v>
+        <v>0.178003099354221</v>
       </c>
       <c r="C81">
-        <v>0.009692047443837082</v>
+        <v>0.008217683573880367</v>
       </c>
       <c r="D81">
-        <v>-0.05477799881413448</v>
+        <v>0.006155217909280631</v>
       </c>
       <c r="E81">
-        <v>0.1659552130678595</v>
+        <v>0.08564395412380481</v>
       </c>
       <c r="F81">
-        <v>0.004479612100590044</v>
+        <v>-0.1572276860581282</v>
       </c>
       <c r="G81">
-        <v>0.09290114527898576</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.03045738355372633</v>
+      </c>
+      <c r="H81">
+        <v>0.003003600394929473</v>
+      </c>
+      <c r="I81">
+        <v>0.05057140922806883</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09159463943027503</v>
+        <v>0.068982684758324</v>
       </c>
       <c r="C83">
-        <v>-0.07112590430348327</v>
+        <v>0.0550215529690141</v>
       </c>
       <c r="D83">
-        <v>0.05779071672511964</v>
+        <v>0.01650316126472293</v>
       </c>
       <c r="E83">
-        <v>-0.01520606394899192</v>
+        <v>-0.03441640436282455</v>
       </c>
       <c r="F83">
-        <v>-0.05549632603368767</v>
+        <v>0.04599357708445475</v>
       </c>
       <c r="G83">
-        <v>-0.04039050618181688</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.06006537953834129</v>
+      </c>
+      <c r="H83">
+        <v>-0.03482780780410117</v>
+      </c>
+      <c r="I83">
+        <v>0.04039028642557307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2379495885803906</v>
+        <v>0.2504070539032733</v>
       </c>
       <c r="C85">
-        <v>-0.05973015957209581</v>
+        <v>0.06077612956161327</v>
       </c>
       <c r="D85">
-        <v>-0.06732979505086926</v>
+        <v>0.008913668806163743</v>
       </c>
       <c r="E85">
-        <v>0.1595056626228566</v>
+        <v>0.1091032476536212</v>
       </c>
       <c r="F85">
-        <v>0.02809424124587617</v>
+        <v>-0.1874492801679158</v>
       </c>
       <c r="G85">
-        <v>0.08350547997703174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02602393766609867</v>
+      </c>
+      <c r="H85">
+        <v>-0.02717806784797873</v>
+      </c>
+      <c r="I85">
+        <v>0.06932457938963639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04110834368863381</v>
+        <v>0.02361252369272123</v>
       </c>
       <c r="C86">
-        <v>-0.049220102820441</v>
+        <v>0.05272760827808354</v>
       </c>
       <c r="D86">
-        <v>-0.006561338805490887</v>
+        <v>0.003119077346939747</v>
       </c>
       <c r="E86">
-        <v>-0.06804047441055919</v>
+        <v>0.01821622946972064</v>
       </c>
       <c r="F86">
-        <v>0.002792120491829924</v>
+        <v>0.07990365751615403</v>
       </c>
       <c r="G86">
-        <v>0.002263843093890691</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0006841650082428083</v>
+      </c>
+      <c r="H86">
+        <v>-0.06253527269067663</v>
+      </c>
+      <c r="I86">
+        <v>0.02208835848723954</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.0282237794037441</v>
+        <v>0.03162727810975632</v>
       </c>
       <c r="C87">
-        <v>0.05476068121368465</v>
+        <v>-0.01000067407664877</v>
       </c>
       <c r="D87">
-        <v>0.001990250530262568</v>
+        <v>0.001202797115313771</v>
       </c>
       <c r="E87">
-        <v>-0.09447398189865258</v>
+        <v>0.002024746629866517</v>
       </c>
       <c r="F87">
-        <v>0.006137031051516613</v>
+        <v>0.0998180074321082</v>
       </c>
       <c r="G87">
-        <v>0.01324839089126656</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02020114749518052</v>
+      </c>
+      <c r="H87">
+        <v>-0.01319397890819967</v>
+      </c>
+      <c r="I87">
+        <v>-0.0019385260250587</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03140571845252414</v>
+        <v>0.03188995189688767</v>
       </c>
       <c r="C88">
-        <v>-0.02421399706617908</v>
+        <v>0.01200940211556125</v>
       </c>
       <c r="D88">
-        <v>0.000160298927265114</v>
+        <v>-0.007841083657579939</v>
       </c>
       <c r="E88">
-        <v>0.01127446384257779</v>
+        <v>0.008563956532285793</v>
       </c>
       <c r="F88">
-        <v>-0.002181295996659344</v>
+        <v>-0.009892972468577276</v>
       </c>
       <c r="G88">
-        <v>-0.01326706723630012</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.04973878632957663</v>
+      </c>
+      <c r="H88">
+        <v>-0.02619813954628251</v>
+      </c>
+      <c r="I88">
+        <v>-0.01540985866890376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.0333069415326846</v>
+        <v>0.09958188198018679</v>
       </c>
       <c r="C89">
-        <v>0.3800833307569853</v>
+        <v>-0.3834554958282572</v>
       </c>
       <c r="D89">
-        <v>0.09442734884594475</v>
+        <v>0.03332867632747873</v>
       </c>
       <c r="E89">
-        <v>-0.006584675751948971</v>
+        <v>-0.08252488033948288</v>
       </c>
       <c r="F89">
-        <v>-0.04154995882645834</v>
+        <v>0.03466970560503337</v>
       </c>
       <c r="G89">
-        <v>-0.01450673627795601</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04185118219378853</v>
+      </c>
+      <c r="H89">
+        <v>-0.03891006478517556</v>
+      </c>
+      <c r="I89">
+        <v>0.2242412520381346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02639737071837992</v>
+        <v>0.06801434403637768</v>
       </c>
       <c r="C90">
-        <v>0.2992648365948858</v>
+        <v>-0.3219946821154808</v>
       </c>
       <c r="D90">
-        <v>0.0561072975012354</v>
+        <v>0.00909044797501958</v>
       </c>
       <c r="E90">
-        <v>-0.05533449786607593</v>
+        <v>-0.06710090487987801</v>
       </c>
       <c r="F90">
-        <v>-0.04382865470755667</v>
+        <v>0.03402265655187768</v>
       </c>
       <c r="G90">
-        <v>-0.02325861489312213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02467236385076819</v>
+      </c>
+      <c r="H90">
+        <v>0.00175592331521413</v>
+      </c>
+      <c r="I90">
+        <v>0.1914875641381835</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2815768408954619</v>
+        <v>0.2895810239097877</v>
       </c>
       <c r="C91">
-        <v>-0.04063563648460712</v>
+        <v>0.05215744376505688</v>
       </c>
       <c r="D91">
-        <v>-0.08625603837113606</v>
+        <v>0.01698693954282238</v>
       </c>
       <c r="E91">
-        <v>0.2712586390106323</v>
+        <v>0.1042385056701908</v>
       </c>
       <c r="F91">
-        <v>0.03108451431314694</v>
+        <v>-0.2746129181696402</v>
       </c>
       <c r="G91">
-        <v>0.05589698906316093</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02740985313932388</v>
+      </c>
+      <c r="H91">
+        <v>0.009139446929631034</v>
+      </c>
+      <c r="I91">
+        <v>0.1021475171712114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06794748474135143</v>
+        <v>0.1310723114533489</v>
       </c>
       <c r="C92">
-        <v>0.4088042872231728</v>
+        <v>-0.4152327324060417</v>
       </c>
       <c r="D92">
-        <v>0.1698842942875098</v>
+        <v>-0.01107060692096169</v>
       </c>
       <c r="E92">
-        <v>0.09518963202211297</v>
+        <v>-0.1098060237345088</v>
       </c>
       <c r="F92">
-        <v>0.08187938354659019</v>
+        <v>-0.1106778670781678</v>
       </c>
       <c r="G92">
-        <v>-0.003415406562517908</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.08529595994293646</v>
+      </c>
+      <c r="H92">
+        <v>-0.4643951009572735</v>
+      </c>
+      <c r="I92">
+        <v>-0.5224079010500186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.01696504924815456</v>
+        <v>0.08033918865676262</v>
       </c>
       <c r="C93">
-        <v>0.3678771480220606</v>
+        <v>-0.3903072504613317</v>
       </c>
       <c r="D93">
-        <v>0.08462664096672896</v>
+        <v>0.02562787079347589</v>
       </c>
       <c r="E93">
-        <v>0.01870085710321348</v>
+        <v>-0.1077021978236206</v>
       </c>
       <c r="F93">
-        <v>0.008015013691286007</v>
+        <v>0.004847733411037106</v>
       </c>
       <c r="G93">
-        <v>-0.02841025372799331</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0384218182604495</v>
+      </c>
+      <c r="H93">
+        <v>0.02922886595530041</v>
+      </c>
+      <c r="I93">
+        <v>0.1243678798317713</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2815715066576182</v>
+        <v>0.3121481476636562</v>
       </c>
       <c r="C94">
-        <v>0.09594384109661078</v>
+        <v>-0.03698176250122545</v>
       </c>
       <c r="D94">
-        <v>-0.05320185185269422</v>
+        <v>0.04052166882943235</v>
       </c>
       <c r="E94">
-        <v>0.356047971470159</v>
+        <v>0.1342366764148475</v>
       </c>
       <c r="F94">
-        <v>0.1075275853914761</v>
+        <v>-0.3287779864707785</v>
       </c>
       <c r="G94">
-        <v>0.3701261877291412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.202756193805871</v>
+      </c>
+      <c r="H94">
+        <v>-0.1168577554134121</v>
+      </c>
+      <c r="I94">
+        <v>-0.02387459164949805</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1844428668541913</v>
+        <v>0.1371457881211782</v>
       </c>
       <c r="C95">
-        <v>-0.004466541834217676</v>
+        <v>0.04608610373191485</v>
       </c>
       <c r="D95">
-        <v>-0.01937648758472298</v>
+        <v>0.09784145712910408</v>
       </c>
       <c r="E95">
-        <v>0.3589434803728982</v>
+        <v>0.03943048463080403</v>
       </c>
       <c r="F95">
-        <v>-0.3543060932339273</v>
+        <v>-0.08861484438099372</v>
       </c>
       <c r="G95">
-        <v>-0.7850614089821116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8967102611270539</v>
+      </c>
+      <c r="H95">
+        <v>0.168919802021077</v>
+      </c>
+      <c r="I95">
+        <v>-0.1798063854778202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2197235535511412</v>
+        <v>0.2099633178277055</v>
       </c>
       <c r="C98">
-        <v>0.1008193144038308</v>
+        <v>-0.05636331428010043</v>
       </c>
       <c r="D98">
-        <v>0.03294552503804236</v>
+        <v>0.06055526096574652</v>
       </c>
       <c r="E98">
-        <v>-0.09540217737533901</v>
+        <v>-0.03421268605827584</v>
       </c>
       <c r="F98">
-        <v>-0.0444269890215719</v>
+        <v>0.1598907838947927</v>
       </c>
       <c r="G98">
-        <v>-0.02263649292321706</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07883930549930319</v>
+      </c>
+      <c r="H98">
+        <v>0.3214620431093549</v>
+      </c>
+      <c r="I98">
+        <v>-0.1614353677687362</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02444298123619432</v>
+        <v>0.01686708285489298</v>
       </c>
       <c r="C101">
-        <v>-0.025996252095653</v>
+        <v>0.02888244816359348</v>
       </c>
       <c r="D101">
-        <v>-0.03261064170114015</v>
+        <v>-0.003565549632601029</v>
       </c>
       <c r="E101">
-        <v>-0.03532342210434344</v>
+        <v>0.03574779778843564</v>
       </c>
       <c r="F101">
-        <v>-0.01716284583709229</v>
+        <v>0.06811179828161933</v>
       </c>
       <c r="G101">
-        <v>-0.005299604778677671</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01498752930351502</v>
+      </c>
+      <c r="H101">
+        <v>-0.1099418052136368</v>
+      </c>
+      <c r="I101">
+        <v>-0.0842652961438811</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.111656955066846</v>
+        <v>0.1208203542273582</v>
       </c>
       <c r="C102">
-        <v>-0.02481521632279928</v>
+        <v>0.02634765851014866</v>
       </c>
       <c r="D102">
-        <v>-0.03945190759999315</v>
+        <v>-0.003020349400454644</v>
       </c>
       <c r="E102">
-        <v>0.09687200936356904</v>
+        <v>0.05577446238343914</v>
       </c>
       <c r="F102">
-        <v>0.02280494834021367</v>
+        <v>-0.1052234169209524</v>
       </c>
       <c r="G102">
-        <v>0.007925036112153295</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.007410063501540766</v>
+      </c>
+      <c r="H102">
+        <v>0.005127736402004864</v>
+      </c>
+      <c r="I102">
+        <v>0.0656249794614412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02015112405795832</v>
+        <v>0.02970745547846608</v>
       </c>
       <c r="C103">
-        <v>-0.004871394316953446</v>
+        <v>0.007626561614570012</v>
       </c>
       <c r="D103">
-        <v>-0.009314380383465952</v>
+        <v>-0.008434362959822764</v>
       </c>
       <c r="E103">
-        <v>0.03224796111216209</v>
+        <v>0.02061149184052742</v>
       </c>
       <c r="F103">
-        <v>-0.003422968734496284</v>
+        <v>-0.02591252421074085</v>
       </c>
       <c r="G103">
-        <v>0.01096284334174713</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01004088960238088</v>
+      </c>
+      <c r="H103">
+        <v>-0.013326190158763</v>
+      </c>
+      <c r="I103">
+        <v>0.0228160919683691</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
